--- a/biology/Zoologie/Aname_distincta/Aname_distincta.xlsx
+++ b/biology/Zoologie/Aname_distincta/Aname_distincta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aname distincta est une espèce d'araignées mygalomorphes de la famille des Anamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aname distincta est une espèce d'araignées mygalomorphes de la famille des Anamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre d'Eidsvold aux monts Bunya[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre d'Eidsvold aux monts Bunya.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 10 mm de long sur 7,6 mm et l'abdomen 11 mm de long sur 7,6 mm[3].
-La carapace du mâle décrit par Raven en 1985 mesure 6,94 mm de long sur 5,38 mm et l'abdomen 6,88 mm de long sur 4,06 mm et la carapace de la femelle paratype mesure 10,00 mm de long sur 8,00 mm et l'abdomen 11,33 mm de long sur 6,67 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 10 mm de long sur 7,6 mm et l'abdomen 11 mm de long sur 7,6 mm.
+La carapace du mâle décrit par Raven en 1985 mesure 6,94 mm de long sur 5,38 mm et l'abdomen 6,88 mm de long sur 4,06 mm et la carapace de la femelle paratype mesure 10,00 mm de long sur 8,00 mm et l'abdomen 11,33 mm de long sur 6,67 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ixamatus distinctus par Rainbow en 1914. Elle est placée dans le genre Aname par Raven en 1980[4].
-Aname villosa[5] et Dolichosternum attenuatum[5] ont été placées en synonymie par Raven en 1981[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ixamatus distinctus par Rainbow en 1914. Elle est placée dans le genre Aname par Raven en 1980.
+Aname villosa et Dolichosternum attenuatum ont été placées en synonymie par Raven en 1981.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rainbow, 1914 : Studies in the Australian Araneidae. No. 6. The Terretelariae. Records of the Australian Museum, vol. 10, p. 187-270 (texte intégral).</t>
         </is>
